--- a/TestData/caldata.xlsx
+++ b/TestData/caldata.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="28">
   <si>
     <t xml:space="preserve">Principle</t>
   </si>
